--- a/SP14/RevisionAlmacenamientoDatosDefinido.xlsx
+++ b/SP14/RevisionAlmacenamientoDatosDefinido.xlsx
@@ -151,15 +151,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +165,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,70 +493,70 @@
   <sheetData>
     <row r="1" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>41935</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>41942</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>41950</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>41957</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>41964</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
